--- a/new_template.xlsx
+++ b/new_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="20" windowWidth="25600" windowHeight="13720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="2022-02-17" sheetId="1" state="visible" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="2022-02-2125" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -457,7 +457,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -664,19 +664,61 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1">
+        <f>b1*b2</f>
+        <v/>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Text</t>
+          <t>Daniel Phung</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>526 99023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Kitcher, ON</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Missisauga, On</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>l4z 3v8</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>danielvphugn@gmail.com</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>416 579 4298</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>asas</t>
         </is>
       </c>
     </row>
